--- a/plantillaHPV/sistematizacion.xlsx
+++ b/plantillaHPV/sistematizacion.xlsx
@@ -611,20 +611,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9038</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>70556</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -643,8 +643,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2905125" y="57150"/>
-          <a:ext cx="7571888" cy="823031"/>
+          <a:off x="1485900" y="0"/>
+          <a:ext cx="10058400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -981,7 +981,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1029,6 +1029,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -1047,6 +1048,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -1065,6 +1067,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
@@ -1083,6 +1086,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
@@ -1101,6 +1105,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
@@ -1119,6 +1124,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:27" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
@@ -1139,6 +1145,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -1157,8 +1164,10 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1174,6 +1183,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>

--- a/plantillaHPV/sistematizacion.xlsx
+++ b/plantillaHPV/sistematizacion.xlsx
@@ -612,19 +612,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -643,7 +643,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1485900" y="0"/>
+          <a:off x="1495425" y="0"/>
           <a:ext cx="10058400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
